--- a/out/CE/FigA_31.xlsx
+++ b/out/CE/FigA_31.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535585AB-1BF5-42EE-842D-16AA9110AA37}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>0.86617999999999995</v>
+      </c>
+      <c r="B1">
+        <v>0.87565999999999999</v>
+      </c>
+      <c r="C1">
+        <v>0.87668000000000001</v>
+      </c>
+      <c r="D1">
+        <v>0.87548000000000004</v>
+      </c>
+      <c r="E1">
+        <v>0.86331999999999998</v>
+      </c>
+      <c r="F1">
+        <v>0.88371999999999995</v>
+      </c>
+      <c r="G1">
+        <v>0.86114000000000002</v>
+      </c>
+      <c r="H1">
+        <v>0.86263999999999996</v>
+      </c>
+      <c r="I1">
+        <v>0.86697999999999997</v>
+      </c>
+      <c r="J1">
+        <v>0.87317999999999996</v>
+      </c>
+      <c r="K1">
+        <v>0.88031999999999999</v>
+      </c>
+      <c r="L1">
+        <v>0.86275999999999997</v>
+      </c>
+      <c r="M1">
+        <v>0.86865999999999999</v>
+      </c>
+      <c r="N1">
+        <v>0.87007999999999996</v>
+      </c>
+      <c r="O1">
+        <v>0.86204000000000003</v>
+      </c>
+      <c r="P1">
+        <v>0.87578</v>
+      </c>
+      <c r="Q1">
+        <v>0.88327999999999995</v>
+      </c>
+      <c r="R1">
+        <v>0.85072000000000003</v>
+      </c>
+      <c r="S1">
+        <v>0.87302000000000002</v>
+      </c>
+      <c r="T1">
+        <v>0.86775999999999998</v>
+      </c>
+      <c r="U1">
+        <v>0.85951999999999995</v>
+      </c>
+      <c r="V1">
+        <v>0.87778</v>
+      </c>
+      <c r="W1">
+        <v>0.88632</v>
+      </c>
+      <c r="X1">
+        <v>0.86838000000000004</v>
+      </c>
+      <c r="Y1">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="Z1">
+        <v>0.88393999999999995</v>
+      </c>
+      <c r="AA1">
+        <v>0.86636000000000002</v>
+      </c>
+      <c r="AB1">
+        <v>0.86707999999999996</v>
+      </c>
+      <c r="AC1">
+        <v>0.86158000000000001</v>
+      </c>
+      <c r="AD1">
+        <v>0.85840000000000005</v>
+      </c>
+      <c r="AE1">
+        <v>0.84241999999999995</v>
+      </c>
+      <c r="AF1">
+        <v>0.88485999999999998</v>
+      </c>
+      <c r="AG1">
+        <v>0.86353999999999997</v>
+      </c>
+      <c r="AH1">
+        <v>0.85236000000000001</v>
+      </c>
+      <c r="AI1">
+        <v>0.86885999999999997</v>
+      </c>
+      <c r="AJ1">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="AK1">
+        <v>0.87902000000000002</v>
+      </c>
+      <c r="AL1">
+        <v>0.86506000000000005</v>
+      </c>
+      <c r="AM1">
+        <v>0.87526000000000004</v>
+      </c>
+      <c r="AN1">
+        <v>0.87117999999999995</v>
+      </c>
+      <c r="AO1">
+        <v>0.86736000000000002</v>
+      </c>
+      <c r="AP1">
+        <v>0.86119999999999997</v>
+      </c>
+      <c r="AQ1">
+        <v>0.86387999999999998</v>
+      </c>
+      <c r="AR1">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="AS1">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="AT1">
+        <v>0.86453999999999998</v>
+      </c>
+      <c r="AU1">
+        <v>0.86875999999999998</v>
+      </c>
+      <c r="AV1">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="AW1">
+        <v>0.86685999999999996</v>
+      </c>
+      <c r="AX1">
+        <v>0.87536000000000003</v>
+      </c>
+      <c r="AY1">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="AZ1">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="BA1">
+        <v>0.84470999999999996</v>
+      </c>
+      <c r="BB1">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="BC1">
+        <v>0.86738000000000004</v>
+      </c>
+      <c r="BD1">
+        <v>0.87172000000000005</v>
+      </c>
+      <c r="BE1">
+        <v>0.87065999999999999</v>
+      </c>
+      <c r="BF1">
+        <v>0.87353999999999998</v>
+      </c>
+      <c r="BG1">
+        <v>0.85685999999999996</v>
+      </c>
+      <c r="BH1">
+        <v>0.88183999999999996</v>
+      </c>
+      <c r="BI1">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="BJ1">
+        <v>0.85953999999999997</v>
+      </c>
+      <c r="BK1">
+        <v>0.87229999999999996</v>
+      </c>
+      <c r="BL1">
+        <v>0.85018000000000005</v>
+      </c>
+      <c r="BM1">
+        <v>0.84974000000000005</v>
+      </c>
+      <c r="BN1">
+        <v>0.87444</v>
+      </c>
+      <c r="BO1">
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="BP1">
+        <v>0.85011999999999999</v>
+      </c>
+      <c r="BQ1">
+        <v>0.86394000000000004</v>
+      </c>
+      <c r="BR1">
+        <v>0.86251999999999995</v>
+      </c>
+      <c r="BS1">
+        <v>0.86951999999999996</v>
+      </c>
+      <c r="BT1">
+        <v>0.85338000000000003</v>
+      </c>
+      <c r="BU1">
+        <v>0.84374000000000005</v>
+      </c>
+      <c r="BV1">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="BW1">
+        <v>0.89158000000000004</v>
+      </c>
+      <c r="BX1">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="BY1">
+        <v>0.88632</v>
+      </c>
+      <c r="BZ1">
+        <v>0.86358000000000001</v>
+      </c>
+      <c r="CA1">
+        <v>0.86658000000000002</v>
+      </c>
+      <c r="CB1">
+        <v>0.87988</v>
+      </c>
+      <c r="CC1">
+        <v>0.86995999999999996</v>
+      </c>
+      <c r="CD1">
+        <v>0.86580000000000001</v>
+      </c>
+      <c r="CE1">
+        <v>0.85443999999999998</v>
+      </c>
+      <c r="CF1">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="CG1">
+        <v>0.87826000000000004</v>
+      </c>
+      <c r="CH1">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="CI1">
+        <v>0.86160000000000003</v>
+      </c>
+      <c r="CJ1">
+        <v>0.85892000000000002</v>
+      </c>
+      <c r="CK1">
+        <v>0.87595999999999996</v>
+      </c>
+      <c r="CL1">
+        <v>0.85128000000000004</v>
+      </c>
+      <c r="CM1">
+        <v>0.87807999999999997</v>
+      </c>
+      <c r="CN1">
+        <v>0.85416000000000003</v>
+      </c>
+      <c r="CO1">
+        <v>0.87343999999999999</v>
+      </c>
+      <c r="CP1">
+        <v>0.84304000000000001</v>
+      </c>
+      <c r="CQ1">
+        <v>0.86253999999999997</v>
+      </c>
+      <c r="CR1">
+        <v>0.85226000000000002</v>
+      </c>
+      <c r="CS1">
+        <v>0.85511999999999999</v>
+      </c>
+      <c r="CT1">
+        <v>0.85562000000000005</v>
+      </c>
+      <c r="CU1">
+        <v>0.85707999999999995</v>
+      </c>
+      <c r="CV1">
+        <v>0.86292000000000002</v>
+      </c>
+      <c r="CW1">
+        <v>0.86668129999999988</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.85719999999999996</v>
+      </c>
+      <c r="B2">
+        <v>0.84994000000000003</v>
+      </c>
+      <c r="C2">
+        <v>0.86885999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="E2">
+        <v>0.85284000000000004</v>
+      </c>
+      <c r="F2">
+        <v>0.89293999999999996</v>
+      </c>
+      <c r="G2">
+        <v>0.86675999999999997</v>
+      </c>
+      <c r="H2">
+        <v>0.84558</v>
+      </c>
+      <c r="I2">
+        <v>0.8488</v>
+      </c>
+      <c r="J2">
+        <v>0.86473999999999995</v>
+      </c>
+      <c r="K2">
+        <v>0.86687999999999998</v>
+      </c>
+      <c r="L2">
+        <v>0.87209999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.873</v>
+      </c>
+      <c r="N2">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="O2">
+        <v>0.89124000000000003</v>
+      </c>
+      <c r="P2">
+        <v>0.85873999999999995</v>
+      </c>
+      <c r="Q2">
+        <v>0.86438000000000004</v>
+      </c>
+      <c r="R2">
+        <v>0.86614000000000002</v>
+      </c>
+      <c r="S2">
+        <v>0.87605999999999995</v>
+      </c>
+      <c r="T2">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="U2">
+        <v>0.85982000000000003</v>
+      </c>
+      <c r="V2">
+        <v>0.86334</v>
+      </c>
+      <c r="W2">
+        <v>0.87197999999999998</v>
+      </c>
+      <c r="X2">
+        <v>0.8407</v>
+      </c>
+      <c r="Y2">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="Z2">
+        <v>0.86438000000000004</v>
+      </c>
+      <c r="AA2">
+        <v>0.87343999999999999</v>
+      </c>
+      <c r="AB2">
+        <v>0.83350000000000002</v>
+      </c>
+      <c r="AC2">
+        <v>0.88161999999999996</v>
+      </c>
+      <c r="AD2">
+        <v>0.85696000000000006</v>
+      </c>
+      <c r="AE2">
+        <v>0.85185999999999995</v>
+      </c>
+      <c r="AF2">
+        <v>0.87894000000000005</v>
+      </c>
+      <c r="AG2">
+        <v>0.88466</v>
+      </c>
+      <c r="AH2">
+        <v>0.86761999999999995</v>
+      </c>
+      <c r="AI2">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="AJ2">
+        <v>0.87426000000000004</v>
+      </c>
+      <c r="AK2">
+        <v>0.87282000000000004</v>
+      </c>
+      <c r="AL2">
+        <v>0.87848000000000004</v>
+      </c>
+      <c r="AM2">
+        <v>0.87761999999999996</v>
+      </c>
+      <c r="AN2">
+        <v>0.85933999999999999</v>
+      </c>
+      <c r="AO2">
+        <v>0.87114000000000003</v>
+      </c>
+      <c r="AP2">
+        <v>0.85726000000000002</v>
+      </c>
+      <c r="AQ2">
+        <v>0.86238000000000004</v>
+      </c>
+      <c r="AR2">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="AS2">
+        <v>0.8831</v>
+      </c>
+      <c r="AT2">
+        <v>0.86806000000000005</v>
+      </c>
+      <c r="AU2">
+        <v>0.86253999999999997</v>
+      </c>
+      <c r="AV2">
+        <v>0.86565999999999999</v>
+      </c>
+      <c r="AW2">
+        <v>0.88597999999999999</v>
+      </c>
+      <c r="AX2">
+        <v>0.8629</v>
+      </c>
+      <c r="AY2">
+        <v>0.87775999999999998</v>
+      </c>
+      <c r="AZ2">
+        <v>0.87678</v>
+      </c>
+      <c r="BA2">
+        <v>0.87124000000000001</v>
+      </c>
+      <c r="BB2">
+        <v>0.86906000000000005</v>
+      </c>
+      <c r="BC2">
+        <v>0.88022</v>
+      </c>
+      <c r="BD2">
+        <v>0.85792000000000002</v>
+      </c>
+      <c r="BE2">
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="BF2">
+        <v>0.87775999999999998</v>
+      </c>
+      <c r="BG2">
+        <v>0.86494000000000004</v>
+      </c>
+      <c r="BH2">
+        <v>0.86573999999999995</v>
+      </c>
+      <c r="BI2">
+        <v>0.86116000000000004</v>
+      </c>
+      <c r="BJ2">
+        <v>0.85994000000000004</v>
+      </c>
+      <c r="BK2">
+        <v>0.87316000000000005</v>
+      </c>
+      <c r="BL2">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="BM2">
+        <v>0.86577999999999999</v>
+      </c>
+      <c r="BN2">
+        <v>0.88770000000000004</v>
+      </c>
+      <c r="BO2">
+        <v>0.85253999999999996</v>
+      </c>
+      <c r="BP2">
+        <v>0.89783999999999997</v>
+      </c>
+      <c r="BQ2">
+        <v>0.86568000000000001</v>
+      </c>
+      <c r="BR2">
+        <v>0.85682000000000003</v>
+      </c>
+      <c r="BS2">
+        <v>0.86355999999999999</v>
+      </c>
+      <c r="BT2">
+        <v>0.87056</v>
+      </c>
+      <c r="BU2">
+        <v>0.86512</v>
+      </c>
+      <c r="BV2">
+        <v>0.86521999999999999</v>
+      </c>
+      <c r="BW2">
+        <v>0.85453999999999997</v>
+      </c>
+      <c r="BX2">
+        <v>0.86153999999999997</v>
+      </c>
+      <c r="BY2">
+        <v>0.85655999999999999</v>
+      </c>
+      <c r="BZ2">
+        <v>0.85853999999999997</v>
+      </c>
+      <c r="CA2">
+        <v>0.84538000000000002</v>
+      </c>
+      <c r="CB2">
+        <v>0.85375999999999996</v>
+      </c>
+      <c r="CC2">
+        <v>0.87851999999999997</v>
+      </c>
+      <c r="CD2">
+        <v>0.87041999999999997</v>
+      </c>
+      <c r="CE2">
+        <v>0.86472000000000004</v>
+      </c>
+      <c r="CF2">
+        <v>0.84523999999999999</v>
+      </c>
+      <c r="CG2">
+        <v>0.86548000000000003</v>
+      </c>
+      <c r="CH2">
+        <v>0.85921999999999998</v>
+      </c>
+      <c r="CI2">
+        <v>0.86572000000000005</v>
+      </c>
+      <c r="CJ2">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="CK2">
+        <v>0.86170000000000002</v>
+      </c>
+      <c r="CL2">
+        <v>0.85397999999999996</v>
+      </c>
+      <c r="CM2">
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="CN2">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="CO2">
+        <v>0.86434</v>
+      </c>
+      <c r="CP2">
+        <v>0.86521999999999999</v>
+      </c>
+      <c r="CQ2">
+        <v>0.872</v>
+      </c>
+      <c r="CR2">
+        <v>0.86675999999999997</v>
+      </c>
+      <c r="CS2">
+        <v>0.872</v>
+      </c>
+      <c r="CT2">
+        <v>0.85474000000000006</v>
+      </c>
+      <c r="CU2">
+        <v>0.86443999999999999</v>
+      </c>
+      <c r="CV2">
+        <v>0.88822000000000001</v>
+      </c>
+      <c r="CW2">
+        <v>0.86610700000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.86426000000000003</v>
+      </c>
+      <c r="B3">
+        <v>0.86446000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.8669</v>
+      </c>
+      <c r="D3">
+        <v>0.87744</v>
+      </c>
+      <c r="E3">
+        <v>0.8569</v>
+      </c>
+      <c r="F3">
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="G3">
+        <v>0.87856000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.86894000000000005</v>
+      </c>
+      <c r="I3">
+        <v>0.86558000000000002</v>
+      </c>
+      <c r="J3">
+        <v>0.86304000000000003</v>
+      </c>
+      <c r="K3">
+        <v>0.87116000000000005</v>
+      </c>
+      <c r="L3">
+        <v>0.84950000000000003</v>
+      </c>
+      <c r="M3">
+        <v>0.85904000000000003</v>
+      </c>
+      <c r="N3">
+        <v>0.87243999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.85673999999999995</v>
+      </c>
+      <c r="P3">
+        <v>0.86062000000000005</v>
+      </c>
+      <c r="Q3">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="R3">
+        <v>0.85973999999999995</v>
+      </c>
+      <c r="S3">
+        <v>0.85577999999999999</v>
+      </c>
+      <c r="T3">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="U3">
+        <v>0.86368</v>
+      </c>
+      <c r="V3">
+        <v>0.87134</v>
+      </c>
+      <c r="W3">
+        <v>0.87048000000000003</v>
+      </c>
+      <c r="X3">
+        <v>0.85465999999999998</v>
+      </c>
+      <c r="Y3">
+        <v>0.86594000000000004</v>
+      </c>
+      <c r="Z3">
+        <v>0.86883999999999995</v>
+      </c>
+      <c r="AA3">
+        <v>0.87187999999999999</v>
+      </c>
+      <c r="AB3">
+        <v>0.87902000000000002</v>
+      </c>
+      <c r="AC3">
+        <v>0.86836000000000002</v>
+      </c>
+      <c r="AD3">
+        <v>0.87351999999999996</v>
+      </c>
+      <c r="AE3">
+        <v>0.86106000000000005</v>
+      </c>
+      <c r="AF3">
+        <v>0.87468000000000001</v>
+      </c>
+      <c r="AG3">
+        <v>0.87078</v>
+      </c>
+      <c r="AH3">
+        <v>0.86746000000000001</v>
+      </c>
+      <c r="AI3">
+        <v>0.87707999999999997</v>
+      </c>
+      <c r="AJ3">
+        <v>0.85184000000000004</v>
+      </c>
+      <c r="AK3">
+        <v>0.87422</v>
+      </c>
+      <c r="AL3">
+        <v>0.86512</v>
+      </c>
+      <c r="AM3">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="AN3">
+        <v>0.84418000000000004</v>
+      </c>
+      <c r="AO3">
+        <v>0.86556</v>
+      </c>
+      <c r="AP3">
+        <v>0.87121999999999999</v>
+      </c>
+      <c r="AQ3">
+        <v>0.86521999999999999</v>
+      </c>
+      <c r="AR3">
+        <v>0.86534</v>
+      </c>
+      <c r="AS3">
+        <v>0.86743999999999999</v>
+      </c>
+      <c r="AT3">
+        <v>0.86728000000000005</v>
+      </c>
+      <c r="AU3">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="AV3">
+        <v>0.87131999999999998</v>
+      </c>
+      <c r="AW3">
+        <v>0.84928000000000003</v>
+      </c>
+      <c r="AX3">
+        <v>0.88141999999999998</v>
+      </c>
+      <c r="AY3">
+        <v>0.86473999999999995</v>
+      </c>
+      <c r="AZ3">
+        <v>0.87741999999999998</v>
+      </c>
+      <c r="BA3">
+        <v>0.86160000000000003</v>
+      </c>
+      <c r="BB3">
+        <v>0.86695999999999995</v>
+      </c>
+      <c r="BC3">
+        <v>0.87394000000000005</v>
+      </c>
+      <c r="BD3">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="BE3">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="BF3">
+        <v>0.86348000000000003</v>
+      </c>
+      <c r="BG3">
+        <v>0.85807999999999995</v>
+      </c>
+      <c r="BH3">
+        <v>0.87060000000000004</v>
+      </c>
+      <c r="BI3">
+        <v>0.86983999999999995</v>
+      </c>
+      <c r="BJ3">
+        <v>0.85672000000000004</v>
+      </c>
+      <c r="BK3">
+        <v>0.85304000000000002</v>
+      </c>
+      <c r="BL3">
+        <v>0.85538000000000003</v>
+      </c>
+      <c r="BM3">
+        <v>0.86187999999999998</v>
+      </c>
+      <c r="BN3">
+        <v>0.85573999999999995</v>
+      </c>
+      <c r="BO3">
+        <v>0.87405999999999995</v>
+      </c>
+      <c r="BP3">
+        <v>0.8629</v>
+      </c>
+      <c r="BQ3">
+        <v>0.86212</v>
+      </c>
+      <c r="BR3">
+        <v>0.86331999999999998</v>
+      </c>
+      <c r="BS3">
+        <v>0.84987999999999997</v>
+      </c>
+      <c r="BT3">
+        <v>0.86234</v>
+      </c>
+      <c r="BU3">
+        <v>0.87870000000000004</v>
+      </c>
+      <c r="BV3">
+        <v>0.87329999999999997</v>
+      </c>
+      <c r="BW3">
+        <v>0.86936000000000002</v>
+      </c>
+      <c r="BX3">
+        <v>0.87217999999999996</v>
+      </c>
+      <c r="BY3">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="BZ3">
+        <v>0.86873999999999996</v>
+      </c>
+      <c r="CA3">
+        <v>0.85872000000000004</v>
+      </c>
+      <c r="CB3">
+        <v>0.87494000000000005</v>
+      </c>
+      <c r="CC3">
+        <v>0.8367</v>
+      </c>
+      <c r="CD3">
+        <v>0.88304000000000005</v>
+      </c>
+      <c r="CE3">
+        <v>0.85665999999999998</v>
+      </c>
+      <c r="CF3">
+        <v>0.86163999999999996</v>
+      </c>
+      <c r="CG3">
+        <v>0.85994000000000004</v>
+      </c>
+      <c r="CH3">
+        <v>0.86848000000000003</v>
+      </c>
+      <c r="CI3">
+        <v>0.86873999999999996</v>
+      </c>
+      <c r="CJ3">
+        <v>0.87382000000000004</v>
+      </c>
+      <c r="CK3">
+        <v>0.8649</v>
+      </c>
+      <c r="CL3">
+        <v>0.84540000000000004</v>
+      </c>
+      <c r="CM3">
+        <v>0.85106000000000004</v>
+      </c>
+      <c r="CN3">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="CO3">
+        <v>0.87897999999999998</v>
+      </c>
+      <c r="CP3">
+        <v>0.86006000000000005</v>
+      </c>
+      <c r="CQ3">
+        <v>0.87685999999999997</v>
+      </c>
+      <c r="CR3">
+        <v>0.87485999999999997</v>
+      </c>
+      <c r="CS3">
+        <v>0.86168</v>
+      </c>
+      <c r="CT3">
+        <v>0.85092000000000001</v>
+      </c>
+      <c r="CU3">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="CV3">
+        <v>0.85924</v>
+      </c>
+      <c r="CW3">
+        <v>0.86476779999999986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.86702000000000001</v>
+      </c>
+      <c r="B4">
+        <v>0.86953999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.86717999999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.86958000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.87316000000000005</v>
+      </c>
+      <c r="F4">
+        <v>0.85573999999999995</v>
+      </c>
+      <c r="G4">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="H4">
+        <v>0.86717999999999995</v>
+      </c>
+      <c r="I4">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.84389999999999998</v>
+      </c>
+      <c r="K4">
+        <v>0.84958</v>
+      </c>
+      <c r="L4">
+        <v>0.85529999999999995</v>
+      </c>
+      <c r="M4">
+        <v>0.86906000000000005</v>
+      </c>
+      <c r="N4">
+        <v>0.86646000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.86328000000000005</v>
+      </c>
+      <c r="P4">
+        <v>0.87372000000000005</v>
+      </c>
+      <c r="Q4">
+        <v>0.87871999999999995</v>
+      </c>
+      <c r="R4">
+        <v>0.85951999999999995</v>
+      </c>
+      <c r="S4">
+        <v>0.87368000000000001</v>
+      </c>
+      <c r="T4">
+        <v>0.86607999999999996</v>
+      </c>
+      <c r="U4">
+        <v>0.86095999999999995</v>
+      </c>
+      <c r="V4">
+        <v>0.87441999999999998</v>
+      </c>
+      <c r="W4">
+        <v>0.87971999999999995</v>
+      </c>
+      <c r="X4">
+        <v>0.86948000000000003</v>
+      </c>
+      <c r="Y4">
+        <v>0.84945999999999999</v>
+      </c>
+      <c r="Z4">
+        <v>0.86004000000000003</v>
+      </c>
+      <c r="AA4">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="AB4">
+        <v>0.84152000000000005</v>
+      </c>
+      <c r="AC4">
+        <v>0.87738000000000005</v>
+      </c>
+      <c r="AD4">
+        <v>0.87109999999999999</v>
+      </c>
+      <c r="AE4">
+        <v>0.87722</v>
+      </c>
+      <c r="AF4">
+        <v>0.87097999999999998</v>
+      </c>
+      <c r="AG4">
+        <v>0.86265999999999998</v>
+      </c>
+      <c r="AH4">
+        <v>0.85541999999999996</v>
+      </c>
+      <c r="AI4">
+        <v>0.86217999999999995</v>
+      </c>
+      <c r="AJ4">
+        <v>0.87172000000000005</v>
+      </c>
+      <c r="AK4">
+        <v>0.87261999999999995</v>
+      </c>
+      <c r="AL4">
+        <v>0.87795999999999996</v>
+      </c>
+      <c r="AM4">
+        <v>0.87604000000000004</v>
+      </c>
+      <c r="AN4">
+        <v>0.86382000000000003</v>
+      </c>
+      <c r="AO4">
+        <v>0.84952000000000005</v>
+      </c>
+      <c r="AP4">
+        <v>0.86943999999999999</v>
+      </c>
+      <c r="AQ4">
+        <v>0.87183999999999995</v>
+      </c>
+      <c r="AR4">
+        <v>0.88024000000000002</v>
+      </c>
+      <c r="AS4">
+        <v>0.87943000000000005</v>
+      </c>
+      <c r="AT4">
+        <v>0.87224000000000002</v>
+      </c>
+      <c r="AU4">
+        <v>0.85777999999999999</v>
+      </c>
+      <c r="AV4">
+        <v>0.87895999999999996</v>
+      </c>
+      <c r="AW4">
+        <v>0.86606000000000005</v>
+      </c>
+      <c r="AX4">
+        <v>0.85182000000000002</v>
+      </c>
+      <c r="AY4">
+        <v>0.85785999999999996</v>
+      </c>
+      <c r="AZ4">
+        <v>0.87065999999999999</v>
+      </c>
+      <c r="BA4">
+        <v>0.86348000000000003</v>
+      </c>
+      <c r="BB4">
+        <v>0.86638000000000004</v>
+      </c>
+      <c r="BC4">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="BD4">
+        <v>0.86343999999999999</v>
+      </c>
+      <c r="BE4">
+        <v>0.87048000000000003</v>
+      </c>
+      <c r="BF4">
+        <v>0.84518000000000004</v>
+      </c>
+      <c r="BG4">
+        <v>0.87838000000000005</v>
+      </c>
+      <c r="BH4">
+        <v>0.87404000000000004</v>
+      </c>
+      <c r="BI4">
+        <v>0.86512</v>
+      </c>
+      <c r="BJ4">
+        <v>0.87324000000000002</v>
+      </c>
+      <c r="BK4">
+        <v>0.86561999999999995</v>
+      </c>
+      <c r="BL4">
+        <v>0.86412</v>
+      </c>
+      <c r="BM4">
+        <v>0.86382000000000003</v>
+      </c>
+      <c r="BN4">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="BO4">
+        <v>0.86885999999999997</v>
+      </c>
+      <c r="BP4">
+        <v>0.87217999999999996</v>
+      </c>
+      <c r="BQ4">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="BR4">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="BS4">
+        <v>0.88004000000000004</v>
+      </c>
+      <c r="BT4">
+        <v>0.85443999999999998</v>
+      </c>
+      <c r="BU4">
+        <v>0.87114000000000003</v>
+      </c>
+      <c r="BV4">
+        <v>0.84340000000000004</v>
+      </c>
+      <c r="BW4">
+        <v>0.89005999999999996</v>
+      </c>
+      <c r="BX4">
+        <v>0.86434</v>
+      </c>
+      <c r="BY4">
+        <v>0.87414000000000003</v>
+      </c>
+      <c r="BZ4">
+        <v>0.88007999999999997</v>
+      </c>
+      <c r="CA4">
+        <v>0.86968000000000001</v>
+      </c>
+      <c r="CB4">
+        <v>0.84414</v>
+      </c>
+      <c r="CC4">
+        <v>0.87705999999999995</v>
+      </c>
+      <c r="CD4">
+        <v>0.8548</v>
+      </c>
+      <c r="CE4">
+        <v>0.874</v>
+      </c>
+      <c r="CF4">
+        <v>0.86724000000000001</v>
+      </c>
+      <c r="CG4">
+        <v>0.86677999999999999</v>
+      </c>
+      <c r="CH4">
+        <v>0.87048000000000003</v>
+      </c>
+      <c r="CI4">
+        <v>0.85055999999999998</v>
+      </c>
+      <c r="CJ4">
+        <v>0.85841999999999996</v>
+      </c>
+      <c r="CK4">
+        <v>0.86695999999999995</v>
+      </c>
+      <c r="CL4">
         <v>0.86856</v>
       </c>
-      <c r="B1">
-        <v>0.85850000000000004</v>
-      </c>
-      <c r="C1">
-        <v>0.86353000000000002</v>
+      <c r="CM4">
+        <v>0.87414000000000003</v>
+      </c>
+      <c r="CN4">
+        <v>0.88622000000000001</v>
+      </c>
+      <c r="CO4">
+        <v>0.88041999999999998</v>
+      </c>
+      <c r="CP4">
+        <v>0.87304000000000004</v>
+      </c>
+      <c r="CQ4">
+        <v>0.87187999999999999</v>
+      </c>
+      <c r="CR4">
+        <v>0.88522000000000001</v>
+      </c>
+      <c r="CS4">
+        <v>0.8569</v>
+      </c>
+      <c r="CT4">
+        <v>0.8579</v>
+      </c>
+      <c r="CU4">
+        <v>0.87612000000000001</v>
+      </c>
+      <c r="CV4">
+        <v>0.85782000000000003</v>
+      </c>
+      <c r="CW4">
+        <v>0.86643869999999978</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.87544</v>
-      </c>
-      <c r="B2">
-        <v>0.86448000000000003</v>
-      </c>
-      <c r="C2">
-        <v>0.86996000000000007</v>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.85377999999999998</v>
+      </c>
+      <c r="B5">
+        <v>0.87258000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.86331999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.86177999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.85111999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.85524</v>
+      </c>
+      <c r="G5">
+        <v>0.87358000000000002</v>
+      </c>
+      <c r="H5">
+        <v>0.86697999999999997</v>
+      </c>
+      <c r="I5">
+        <v>0.86856</v>
+      </c>
+      <c r="J5">
+        <v>0.84114</v>
+      </c>
+      <c r="K5">
+        <v>0.85775999999999997</v>
+      </c>
+      <c r="L5">
+        <v>0.85782000000000003</v>
+      </c>
+      <c r="M5">
+        <v>0.85529999999999995</v>
+      </c>
+      <c r="N5">
+        <v>0.8831</v>
+      </c>
+      <c r="O5">
+        <v>0.85218000000000005</v>
+      </c>
+      <c r="P5">
+        <v>0.85728000000000004</v>
+      </c>
+      <c r="Q5">
+        <v>0.87456</v>
+      </c>
+      <c r="R5">
+        <v>0.85765999999999998</v>
+      </c>
+      <c r="S5">
+        <v>0.86504000000000003</v>
+      </c>
+      <c r="T5">
+        <v>0.84584000000000004</v>
+      </c>
+      <c r="U5">
+        <v>0.85529999999999995</v>
+      </c>
+      <c r="V5">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="W5">
+        <v>0.87387999999999999</v>
+      </c>
+      <c r="X5">
+        <v>0.84392</v>
+      </c>
+      <c r="Y5">
+        <v>0.85006000000000004</v>
+      </c>
+      <c r="Z5">
+        <v>0.87263999999999997</v>
+      </c>
+      <c r="AA5">
+        <v>0.87731999999999999</v>
+      </c>
+      <c r="AB5">
+        <v>0.87270000000000003</v>
+      </c>
+      <c r="AC5">
+        <v>0.87753999999999999</v>
+      </c>
+      <c r="AD5">
+        <v>0.86895999999999995</v>
+      </c>
+      <c r="AE5">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="AF5">
+        <v>0.85918000000000005</v>
+      </c>
+      <c r="AG5">
+        <v>0.85911999999999999</v>
+      </c>
+      <c r="AH5">
+        <v>0.86485999999999996</v>
+      </c>
+      <c r="AI5">
+        <v>0.86702000000000001</v>
+      </c>
+      <c r="AJ5">
+        <v>0.86112</v>
+      </c>
+      <c r="AK5">
+        <v>0.86431999999999998</v>
+      </c>
+      <c r="AL5">
+        <v>0.87565999999999999</v>
+      </c>
+      <c r="AM5">
+        <v>0.87839999999999996</v>
+      </c>
+      <c r="AN5">
+        <v>0.85177999999999998</v>
+      </c>
+      <c r="AO5">
+        <v>0.86834</v>
+      </c>
+      <c r="AP5">
+        <v>0.86573999999999995</v>
+      </c>
+      <c r="AQ5">
+        <v>0.84807999999999995</v>
+      </c>
+      <c r="AR5">
+        <v>0.86350000000000005</v>
+      </c>
+      <c r="AS5">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="AT5">
+        <v>0.87014000000000002</v>
+      </c>
+      <c r="AU5">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="AV5">
+        <v>0.87216000000000005</v>
+      </c>
+      <c r="AW5">
+        <v>0.85811999999999999</v>
+      </c>
+      <c r="AX5">
+        <v>0.87456</v>
+      </c>
+      <c r="AY5">
+        <v>0.85304000000000002</v>
+      </c>
+      <c r="AZ5">
+        <v>0.87070000000000003</v>
+      </c>
+      <c r="BA5">
+        <v>0.86343999999999999</v>
+      </c>
+      <c r="BB5">
+        <v>0.84685999999999995</v>
+      </c>
+      <c r="BC5">
+        <v>0.83811999999999998</v>
+      </c>
+      <c r="BD5">
+        <v>0.85963999999999996</v>
+      </c>
+      <c r="BE5">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="BF5">
+        <v>0.86794000000000004</v>
+      </c>
+      <c r="BG5">
+        <v>0.87058000000000002</v>
+      </c>
+      <c r="BH5">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="BI5">
+        <v>0.86397999999999997</v>
+      </c>
+      <c r="BJ5">
+        <v>0.86112</v>
+      </c>
+      <c r="BK5">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="BL5">
+        <v>0.87558000000000002</v>
+      </c>
+      <c r="BM5">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="BN5">
+        <v>0.84386000000000005</v>
+      </c>
+      <c r="BO5">
+        <v>0.86609999999999998</v>
+      </c>
+      <c r="BP5">
+        <v>0.86270000000000002</v>
+      </c>
+      <c r="BQ5">
+        <v>0.89314000000000004</v>
+      </c>
+      <c r="BR5">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="BS5">
+        <v>0.86607999999999996</v>
+      </c>
+      <c r="BT5">
+        <v>0.87473999999999996</v>
+      </c>
+      <c r="BU5">
+        <v>0.84209000000000001</v>
+      </c>
+      <c r="BV5">
+        <v>0.86304000000000003</v>
+      </c>
+      <c r="BW5">
+        <v>0.87404000000000004</v>
+      </c>
+      <c r="BX5">
+        <v>0.86421999999999999</v>
+      </c>
+      <c r="BY5">
+        <v>0.87412000000000001</v>
+      </c>
+      <c r="BZ5">
+        <v>0.86548000000000003</v>
+      </c>
+      <c r="CA5">
+        <v>0.86017999999999994</v>
+      </c>
+      <c r="CB5">
+        <v>0.86948000000000003</v>
+      </c>
+      <c r="CC5">
+        <v>0.87778</v>
+      </c>
+      <c r="CD5">
+        <v>0.86643999999999999</v>
+      </c>
+      <c r="CE5">
+        <v>0.86451999999999996</v>
+      </c>
+      <c r="CF5">
+        <v>0.875</v>
+      </c>
+      <c r="CG5">
+        <v>0.84745999999999999</v>
+      </c>
+      <c r="CH5">
+        <v>0.85460000000000003</v>
+      </c>
+      <c r="CI5">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="CJ5">
+        <v>0.86861999999999995</v>
+      </c>
+      <c r="CK5">
+        <v>0.85772000000000004</v>
+      </c>
+      <c r="CL5">
+        <v>0.86436000000000002</v>
+      </c>
+      <c r="CM5">
+        <v>0.86207999999999996</v>
+      </c>
+      <c r="CN5">
+        <v>0.86863999999999997</v>
+      </c>
+      <c r="CO5">
+        <v>0.87351999999999996</v>
+      </c>
+      <c r="CP5">
+        <v>0.84352000000000005</v>
+      </c>
+      <c r="CQ5">
+        <v>0.85958000000000001</v>
+      </c>
+      <c r="CR5">
+        <v>0.85758000000000001</v>
+      </c>
+      <c r="CS5">
+        <v>0.85502</v>
+      </c>
+      <c r="CT5">
+        <v>0.88017999999999996</v>
+      </c>
+      <c r="CU5">
+        <v>0.83694000000000002</v>
+      </c>
+      <c r="CV5">
+        <v>0.87958000000000003</v>
+      </c>
+      <c r="CW5">
+        <v>0.86385429999999985</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.87302000000000002</v>
+      </c>
+      <c r="B6">
+        <v>0.87248000000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.85648000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="E6">
+        <v>0.86065999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.88468000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.86961999999999995</v>
+      </c>
+      <c r="H6">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.88388</v>
+      </c>
+      <c r="J6">
+        <v>0.85716000000000003</v>
+      </c>
+      <c r="K6">
+        <v>0.85775999999999997</v>
+      </c>
+      <c r="L6">
+        <v>0.84807999999999995</v>
+      </c>
+      <c r="M6">
+        <v>0.82921999999999996</v>
+      </c>
+      <c r="N6">
+        <v>0.86621999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.86561999999999995</v>
+      </c>
+      <c r="P6">
+        <v>0.87553999999999998</v>
+      </c>
+      <c r="Q6">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="R6">
+        <v>0.87690000000000001</v>
+      </c>
+      <c r="S6">
+        <v>0.86497999999999997</v>
+      </c>
+      <c r="T6">
+        <v>0.86685999999999996</v>
+      </c>
+      <c r="U6">
+        <v>0.87085999999999997</v>
+      </c>
+      <c r="V6">
+        <v>0.86068</v>
+      </c>
+      <c r="W6">
+        <v>0.86477999999999999</v>
+      </c>
+      <c r="X6">
+        <v>0.87397999999999998</v>
+      </c>
+      <c r="Y6">
+        <v>0.84936</v>
+      </c>
+      <c r="Z6">
+        <v>0.87563999999999997</v>
+      </c>
+      <c r="AA6">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="AB6">
+        <v>0.87782000000000004</v>
+      </c>
+      <c r="AC6">
+        <v>0.87151999999999996</v>
+      </c>
+      <c r="AD6">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="AE6">
+        <v>0.86807999999999996</v>
+      </c>
+      <c r="AF6">
+        <v>0.87263999999999997</v>
+      </c>
+      <c r="AG6">
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="AH6">
+        <v>0.85453999999999997</v>
+      </c>
+      <c r="AI6">
+        <v>0.86021999999999998</v>
+      </c>
+      <c r="AJ6">
+        <v>0.83211999999999997</v>
+      </c>
+      <c r="AK6">
+        <v>0.88002000000000002</v>
+      </c>
+      <c r="AL6">
+        <v>0.87444</v>
+      </c>
+      <c r="AM6">
+        <v>0.86280000000000001</v>
+      </c>
+      <c r="AN6">
+        <v>0.86328000000000005</v>
+      </c>
+      <c r="AO6">
+        <v>0.85692000000000002</v>
+      </c>
+      <c r="AP6">
+        <v>0.85938000000000003</v>
+      </c>
+      <c r="AQ6">
+        <v>0.86721999999999999</v>
+      </c>
+      <c r="AR6">
+        <v>0.86095999999999995</v>
+      </c>
+      <c r="AS6">
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="AT6">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="AU6">
+        <v>0.85719999999999996</v>
+      </c>
+      <c r="AV6">
+        <v>0.85641999999999996</v>
+      </c>
+      <c r="AW6">
+        <v>0.88431999999999999</v>
+      </c>
+      <c r="AX6">
+        <v>0.86804000000000003</v>
+      </c>
+      <c r="AY6">
+        <v>0.86017999999999994</v>
+      </c>
+      <c r="AZ6">
+        <v>0.88007999999999997</v>
+      </c>
+      <c r="BA6">
+        <v>0.87078</v>
+      </c>
+      <c r="BB6">
+        <v>0.85494000000000003</v>
+      </c>
+      <c r="BC6">
+        <v>0.87153999999999998</v>
+      </c>
+      <c r="BD6">
+        <v>0.86463999999999996</v>
+      </c>
+      <c r="BE6">
+        <v>0.84416000000000002</v>
+      </c>
+      <c r="BF6">
+        <v>0.87626000000000004</v>
+      </c>
+      <c r="BG6">
+        <v>0.86477999999999999</v>
+      </c>
+      <c r="BH6">
+        <v>0.87319999999999998</v>
+      </c>
+      <c r="BI6">
+        <v>0.86653999999999998</v>
+      </c>
+      <c r="BJ6">
+        <v>0.86906000000000005</v>
+      </c>
+      <c r="BK6">
+        <v>0.88131999999999999</v>
+      </c>
+      <c r="BL6">
+        <v>0.85958000000000001</v>
+      </c>
+      <c r="BM6">
+        <v>0.86860000000000004</v>
+      </c>
+      <c r="BN6">
+        <v>0.87427999999999995</v>
+      </c>
+      <c r="BO6">
+        <v>0.86814000000000002</v>
+      </c>
+      <c r="BP6">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="BQ6">
+        <v>0.87261999999999995</v>
+      </c>
+      <c r="BR6">
+        <v>0.87273999999999996</v>
+      </c>
+      <c r="BS6">
+        <v>0.8589</v>
+      </c>
+      <c r="BT6">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="BU6">
+        <v>0.86487999999999998</v>
+      </c>
+      <c r="BV6">
+        <v>0.87263999999999997</v>
+      </c>
+      <c r="BW6">
+        <v>0.88346000000000002</v>
+      </c>
+      <c r="BX6">
+        <v>0.86548000000000003</v>
+      </c>
+      <c r="BY6">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="BZ6">
+        <v>0.87512000000000001</v>
+      </c>
+      <c r="CA6">
+        <v>0.86355999999999999</v>
+      </c>
+      <c r="CB6">
+        <v>0.88207999999999998</v>
+      </c>
+      <c r="CC6">
+        <v>0.88558000000000003</v>
+      </c>
+      <c r="CD6">
+        <v>0.86240000000000006</v>
+      </c>
+      <c r="CE6">
+        <v>0.85546</v>
+      </c>
+      <c r="CF6">
+        <v>0.84216000000000002</v>
+      </c>
+      <c r="CG6">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="CH6">
+        <v>0.86631999999999998</v>
+      </c>
+      <c r="CI6">
+        <v>0.87853999999999999</v>
+      </c>
+      <c r="CJ6">
+        <v>0.86631999999999998</v>
+      </c>
+      <c r="CK6">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="CL6">
+        <v>0.86065999999999998</v>
+      </c>
+      <c r="CM6">
+        <v>0.86482000000000003</v>
+      </c>
+      <c r="CN6">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="CO6">
+        <v>0.87929999999999997</v>
+      </c>
+      <c r="CP6">
+        <v>0.87212000000000001</v>
+      </c>
+      <c r="CQ6">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="CR6">
+        <v>0.87307999999999997</v>
+      </c>
+      <c r="CS6">
+        <v>0.85526000000000002</v>
+      </c>
+      <c r="CT6">
+        <v>0.85568</v>
+      </c>
+      <c r="CU6">
+        <v>0.86717999999999995</v>
+      </c>
+      <c r="CV6">
+        <v>0.86794000000000004</v>
+      </c>
+      <c r="CW6">
+        <v>0.86660080000000017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.84636</v>
+      </c>
+      <c r="B7">
+        <v>0.88273999999999997</v>
+      </c>
+      <c r="C7">
+        <v>0.87892000000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.87678</v>
+      </c>
+      <c r="E7">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="F7">
+        <v>0.83847000000000005</v>
+      </c>
+      <c r="G7">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="H7">
+        <v>0.86828000000000005</v>
+      </c>
+      <c r="I7">
         <v>0.86836000000000002</v>
       </c>
-      <c r="B3">
+      <c r="J7">
+        <v>0.86917999999999995</v>
+      </c>
+      <c r="K7">
+        <v>0.85792000000000002</v>
+      </c>
+      <c r="L7">
+        <v>0.87014000000000002</v>
+      </c>
+      <c r="M7">
+        <v>0.87322</v>
+      </c>
+      <c r="N7">
+        <v>0.87104000000000004</v>
+      </c>
+      <c r="O7">
+        <v>0.87268000000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.87716000000000005</v>
+      </c>
+      <c r="Q7">
+        <v>0.87392000000000003</v>
+      </c>
+      <c r="R7">
+        <v>0.87829999999999997</v>
+      </c>
+      <c r="S7">
+        <v>0.87102000000000002</v>
+      </c>
+      <c r="T7">
+        <v>0.86214000000000002</v>
+      </c>
+      <c r="U7">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="V7">
+        <v>0.86136000000000001</v>
+      </c>
+      <c r="W7">
+        <v>0.86263999999999996</v>
+      </c>
+      <c r="X7">
+        <v>0.86216000000000004</v>
+      </c>
+      <c r="Y7">
+        <v>0.84418000000000004</v>
+      </c>
+      <c r="Z7">
+        <v>0.86521999999999999</v>
+      </c>
+      <c r="AA7">
+        <v>0.85236000000000001</v>
+      </c>
+      <c r="AB7">
+        <v>0.875</v>
+      </c>
+      <c r="AC7">
+        <v>0.86194000000000004</v>
+      </c>
+      <c r="AD7">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="AE7">
+        <v>0.88295999999999997</v>
+      </c>
+      <c r="AF7">
+        <v>0.86016000000000004</v>
+      </c>
+      <c r="AG7">
+        <v>0.87868000000000002</v>
+      </c>
+      <c r="AH7">
+        <v>0.87448000000000004</v>
+      </c>
+      <c r="AI7">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="AJ7">
+        <v>0.88002000000000002</v>
+      </c>
+      <c r="AK7">
+        <v>0.87456</v>
+      </c>
+      <c r="AL7">
+        <v>0.86065999999999998</v>
+      </c>
+      <c r="AM7">
+        <v>0.87212000000000001</v>
+      </c>
+      <c r="AN7">
+        <v>0.85140000000000005</v>
+      </c>
+      <c r="AO7">
+        <v>0.85526000000000002</v>
+      </c>
+      <c r="AP7">
+        <v>0.86609999999999998</v>
+      </c>
+      <c r="AQ7">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="AR7">
+        <v>0.8548</v>
+      </c>
+      <c r="AS7">
+        <v>0.88695999999999997</v>
+      </c>
+      <c r="AT7">
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="AU7">
+        <v>0.87465999999999999</v>
+      </c>
+      <c r="AV7">
+        <v>0.87673999999999996</v>
+      </c>
+      <c r="AW7">
+        <v>0.86202000000000001</v>
+      </c>
+      <c r="AX7">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="AY7">
+        <v>0.86363999999999996</v>
+      </c>
+      <c r="AZ7">
+        <v>0.87256</v>
+      </c>
+      <c r="BA7">
+        <v>0.87341999999999997</v>
+      </c>
+      <c r="BB7">
+        <v>0.86651999999999996</v>
+      </c>
+      <c r="BC7">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="BD7">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="BE7">
+        <v>0.86697999999999997</v>
+      </c>
+      <c r="BF7">
+        <v>0.87392000000000003</v>
+      </c>
+      <c r="BG7">
+        <v>0.85936000000000001</v>
+      </c>
+      <c r="BH7">
+        <v>0.86202000000000001</v>
+      </c>
+      <c r="BI7">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="BJ7">
+        <v>0.87051999999999996</v>
+      </c>
+      <c r="BK7">
+        <v>0.89268000000000003</v>
+      </c>
+      <c r="BL7">
+        <v>0.86816000000000004</v>
+      </c>
+      <c r="BM7">
+        <v>0.87283999999999995</v>
+      </c>
+      <c r="BN7">
+        <v>0.85909999999999997</v>
+      </c>
+      <c r="BO7">
+        <v>0.87024000000000001</v>
+      </c>
+      <c r="BP7">
+        <v>0.82982</v>
+      </c>
+      <c r="BQ7">
+        <v>0.87112000000000001</v>
+      </c>
+      <c r="BR7">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="BS7">
+        <v>0.87243999999999999</v>
+      </c>
+      <c r="BT7">
+        <v>0.87887999999999999</v>
+      </c>
+      <c r="BU7">
+        <v>0.85918000000000005</v>
+      </c>
+      <c r="BV7">
+        <v>0.87519999999999998</v>
+      </c>
+      <c r="BW7">
+        <v>0.86058000000000001</v>
+      </c>
+      <c r="BX7">
+        <v>0.86887999999999999</v>
+      </c>
+      <c r="BY7">
+        <v>0.84950000000000003</v>
+      </c>
+      <c r="BZ7">
+        <v>0.87273999999999996</v>
+      </c>
+      <c r="CA7">
+        <v>0.85496000000000005</v>
+      </c>
+      <c r="CB7">
+        <v>0.88222</v>
+      </c>
+      <c r="CC7">
+        <v>0.84736</v>
+      </c>
+      <c r="CD7">
+        <v>0.86572000000000005</v>
+      </c>
+      <c r="CE7">
+        <v>0.85677999999999999</v>
+      </c>
+      <c r="CF7">
+        <v>0.86482000000000003</v>
+      </c>
+      <c r="CG7">
+        <v>0.87029999999999996</v>
+      </c>
+      <c r="CH7">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="CI7">
+        <v>0.88066</v>
+      </c>
+      <c r="CJ7">
+        <v>0.87129999999999996</v>
+      </c>
+      <c r="CK7">
+        <v>0.87446000000000002</v>
+      </c>
+      <c r="CL7">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="CM7">
+        <v>0.85577999999999999</v>
+      </c>
+      <c r="CN7">
+        <v>0.87497999999999998</v>
+      </c>
+      <c r="CO7">
+        <v>0.86665999999999999</v>
+      </c>
+      <c r="CP7">
+        <v>0.87063999999999997</v>
+      </c>
+      <c r="CQ7">
+        <v>0.85448000000000002</v>
+      </c>
+      <c r="CR7">
+        <v>0.86453999999999998</v>
+      </c>
+      <c r="CS7">
+        <v>0.86783999999999994</v>
+      </c>
+      <c r="CT7">
+        <v>0.83901999999999999</v>
+      </c>
+      <c r="CU7">
+        <v>0.86306000000000005</v>
+      </c>
+      <c r="CV7">
+        <v>0.85802</v>
+      </c>
+      <c r="CW7">
+        <v>0.86703370000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.86653999999999998</v>
+      </c>
+      <c r="B8">
+        <v>0.85518000000000005</v>
+      </c>
+      <c r="C8">
+        <v>0.87846000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.86606000000000005</v>
+      </c>
+      <c r="E8">
+        <v>0.87773999999999996</v>
+      </c>
+      <c r="F8">
+        <v>0.85028000000000004</v>
+      </c>
+      <c r="G8">
+        <v>0.8498</v>
+      </c>
+      <c r="H8">
+        <v>0.86428000000000005</v>
+      </c>
+      <c r="I8">
+        <v>0.86238000000000004</v>
+      </c>
+      <c r="J8">
+        <v>0.86602000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="L8">
+        <v>0.85948000000000002</v>
+      </c>
+      <c r="M8">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="N8">
+        <v>0.85897999999999997</v>
+      </c>
+      <c r="O8">
+        <v>0.86465999999999998</v>
+      </c>
+      <c r="P8">
+        <v>0.85333999999999999</v>
+      </c>
+      <c r="Q8">
+        <v>0.86906000000000005</v>
+      </c>
+      <c r="R8">
+        <v>0.85384000000000004</v>
+      </c>
+      <c r="S8">
+        <v>0.85538000000000003</v>
+      </c>
+      <c r="T8">
+        <v>0.84592999999999996</v>
+      </c>
+      <c r="U8">
+        <v>0.85814000000000001</v>
+      </c>
+      <c r="V8">
+        <v>0.88466</v>
+      </c>
+      <c r="W8">
+        <v>0.88205999999999996</v>
+      </c>
+      <c r="X8">
+        <v>0.85128000000000004</v>
+      </c>
+      <c r="Y8">
+        <v>0.87004000000000004</v>
+      </c>
+      <c r="Z8">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="AA8">
+        <v>0.84109999999999996</v>
+      </c>
+      <c r="AB8">
+        <v>0.85336000000000001</v>
+      </c>
+      <c r="AC8">
+        <v>0.85973999999999995</v>
+      </c>
+      <c r="AD8">
+        <v>0.86948000000000003</v>
+      </c>
+      <c r="AE8">
+        <v>0.88307999999999998</v>
+      </c>
+      <c r="AF8">
+        <v>0.85441999999999996</v>
+      </c>
+      <c r="AG8">
+        <v>0.83953999999999995</v>
+      </c>
+      <c r="AH8">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="AI8">
+        <v>0.86653999999999998</v>
+      </c>
+      <c r="AJ8">
+        <v>0.85362000000000005</v>
+      </c>
+      <c r="AK8">
+        <v>0.87414000000000003</v>
+      </c>
+      <c r="AL8">
+        <v>0.85562000000000005</v>
+      </c>
+      <c r="AM8">
+        <v>0.87646000000000002</v>
+      </c>
+      <c r="AN8">
+        <v>0.85148000000000001</v>
+      </c>
+      <c r="AO8">
+        <v>0.86704000000000003</v>
+      </c>
+      <c r="AP8">
+        <v>0.87894000000000005</v>
+      </c>
+      <c r="AQ8">
+        <v>0.85341999999999996</v>
+      </c>
+      <c r="AR8">
+        <v>0.85633999999999999</v>
+      </c>
+      <c r="AS8">
+        <v>0.87636000000000003</v>
+      </c>
+      <c r="AT8">
+        <v>0.87141999999999997</v>
+      </c>
+      <c r="AU8">
+        <v>0.86972000000000005</v>
+      </c>
+      <c r="AV8">
+        <v>0.86021999999999998</v>
+      </c>
+      <c r="AW8">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="AX8">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="AY8">
+        <v>0.84987999999999997</v>
+      </c>
+      <c r="AZ8">
+        <v>0.84894000000000003</v>
+      </c>
+      <c r="BA8">
+        <v>0.85216000000000003</v>
+      </c>
+      <c r="BB8">
+        <v>0.87014000000000002</v>
+      </c>
+      <c r="BC8">
+        <v>0.84375999999999995</v>
+      </c>
+      <c r="BD8">
+        <v>0.86443999999999999</v>
+      </c>
+      <c r="BE8">
+        <v>0.86841999999999997</v>
+      </c>
+      <c r="BF8">
+        <v>0.85463999999999996</v>
+      </c>
+      <c r="BG8">
+        <v>0.87139999999999995</v>
+      </c>
+      <c r="BH8">
+        <v>0.86384000000000005</v>
+      </c>
+      <c r="BI8">
+        <v>0.84945999999999999</v>
+      </c>
+      <c r="BJ8">
+        <v>0.86668000000000001</v>
+      </c>
+      <c r="BK8">
+        <v>0.85806000000000004</v>
+      </c>
+      <c r="BL8">
+        <v>0.86272000000000004</v>
+      </c>
+      <c r="BM8">
+        <v>0.87395999999999996</v>
+      </c>
+      <c r="BN8">
+        <v>0.84807999999999995</v>
+      </c>
+      <c r="BO8">
+        <v>0.85474000000000006</v>
+      </c>
+      <c r="BP8">
+        <v>0.86253999999999997</v>
+      </c>
+      <c r="BQ8">
+        <v>0.88993999999999995</v>
+      </c>
+      <c r="BR8">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="BS8">
+        <v>0.85443999999999998</v>
+      </c>
+      <c r="BT8">
+        <v>0.87726000000000004</v>
+      </c>
+      <c r="BU8">
+        <v>0.85929999999999995</v>
+      </c>
+      <c r="BV8">
+        <v>0.85297000000000001</v>
+      </c>
+      <c r="BW8">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="BX8">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="BY8">
+        <v>0.87451999999999996</v>
+      </c>
+      <c r="BZ8">
+        <v>0.88278000000000001</v>
+      </c>
+      <c r="CA8">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="CB8">
+        <v>0.86187999999999998</v>
+      </c>
+      <c r="CC8">
+        <v>0.86831999999999998</v>
+      </c>
+      <c r="CD8">
+        <v>0.86565999999999999</v>
+      </c>
+      <c r="CE8">
+        <v>0.86529999999999996</v>
+      </c>
+      <c r="CF8">
+        <v>0.86414000000000002</v>
+      </c>
+      <c r="CG8">
+        <v>0.85546</v>
+      </c>
+      <c r="CH8">
+        <v>0.85665999999999998</v>
+      </c>
+      <c r="CI8">
+        <v>0.85673999999999995</v>
+      </c>
+      <c r="CJ8">
+        <v>0.86702000000000001</v>
+      </c>
+      <c r="CK8">
+        <v>0.8609</v>
+      </c>
+      <c r="CL8">
+        <v>0.85062000000000004</v>
+      </c>
+      <c r="CM8">
+        <v>0.86373999999999995</v>
+      </c>
+      <c r="CN8">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="CO8">
+        <v>0.87497999999999998</v>
+      </c>
+      <c r="CP8">
+        <v>0.87163999999999997</v>
+      </c>
+      <c r="CQ8">
+        <v>0.86584000000000005</v>
+      </c>
+      <c r="CR8">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="CS8">
+        <v>0.86270000000000002</v>
+      </c>
+      <c r="CT8">
+        <v>0.87265999999999999</v>
+      </c>
+      <c r="CU8">
+        <v>0.87114000000000003</v>
+      </c>
+      <c r="CV8">
+        <v>0.87568000000000001</v>
+      </c>
+      <c r="CW8">
+        <v>0.86316080000000028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.87536000000000003</v>
+      </c>
+      <c r="B9">
+        <v>0.86887999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.86263999999999996</v>
+      </c>
+      <c r="D9">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.86736000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.85775999999999997</v>
+      </c>
+      <c r="G9">
+        <v>0.85853999999999997</v>
+      </c>
+      <c r="H9">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="I9">
+        <v>0.86684000000000005</v>
+      </c>
+      <c r="J9">
+        <v>0.85741999999999996</v>
+      </c>
+      <c r="K9">
+        <v>0.85604000000000002</v>
+      </c>
+      <c r="L9">
+        <v>0.85975999999999997</v>
+      </c>
+      <c r="M9">
+        <v>0.85451999999999995</v>
+      </c>
+      <c r="N9">
+        <v>0.85538000000000003</v>
+      </c>
+      <c r="O9">
+        <v>0.86914000000000002</v>
+      </c>
+      <c r="P9">
+        <v>0.84775999999999996</v>
+      </c>
+      <c r="Q9">
+        <v>0.85367999999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.86126000000000003</v>
+      </c>
+      <c r="S9">
+        <v>0.84916999999999998</v>
+      </c>
+      <c r="T9">
+        <v>0.87224000000000002</v>
+      </c>
+      <c r="U9">
+        <v>0.86841999999999997</v>
+      </c>
+      <c r="V9">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="W9">
+        <v>0.87790000000000001</v>
+      </c>
+      <c r="X9">
+        <v>0.85933999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>0.87585999999999997</v>
+      </c>
+      <c r="Z9">
+        <v>0.86629999999999996</v>
+      </c>
+      <c r="AA9">
+        <v>0.88427999999999995</v>
+      </c>
+      <c r="AB9">
+        <v>0.87263999999999997</v>
+      </c>
+      <c r="AC9">
+        <v>0.86978</v>
+      </c>
+      <c r="AD9">
+        <v>0.88126000000000004</v>
+      </c>
+      <c r="AE9">
+        <v>0.85633999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>0.86385999999999996</v>
+      </c>
+      <c r="AG9">
+        <v>0.87929999999999997</v>
+      </c>
+      <c r="AH9">
+        <v>0.87434000000000001</v>
+      </c>
+      <c r="AI9">
+        <v>0.87168000000000001</v>
+      </c>
+      <c r="AJ9">
+        <v>0.87724000000000002</v>
+      </c>
+      <c r="AK9">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="AL9">
+        <v>0.85794000000000004</v>
+      </c>
+      <c r="AM9">
+        <v>0.86428000000000005</v>
+      </c>
+      <c r="AN9">
+        <v>0.86514000000000002</v>
+      </c>
+      <c r="AO9">
+        <v>0.87258000000000002</v>
+      </c>
+      <c r="AP9">
+        <v>0.86146</v>
+      </c>
+      <c r="AQ9">
         <v>0.87582000000000004</v>
       </c>
-      <c r="C3">
-        <v>0.87209000000000003</v>
+      <c r="AR9">
+        <v>0.87624000000000002</v>
+      </c>
+      <c r="AS9">
+        <v>0.87861999999999996</v>
+      </c>
+      <c r="AT9">
+        <v>0.86692000000000002</v>
+      </c>
+      <c r="AU9">
+        <v>0.86275999999999997</v>
+      </c>
+      <c r="AV9">
+        <v>0.87322</v>
+      </c>
+      <c r="AW9">
+        <v>0.87046000000000001</v>
+      </c>
+      <c r="AX9">
+        <v>0.85270000000000001</v>
+      </c>
+      <c r="AY9">
+        <v>0.85096000000000005</v>
+      </c>
+      <c r="AZ9">
+        <v>0.84940000000000004</v>
+      </c>
+      <c r="BA9">
+        <v>0.84852000000000005</v>
+      </c>
+      <c r="BB9">
+        <v>0.86916000000000004</v>
+      </c>
+      <c r="BC9">
+        <v>0.87748000000000004</v>
+      </c>
+      <c r="BD9">
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="BE9">
+        <v>0.86682000000000003</v>
+      </c>
+      <c r="BF9">
+        <v>0.86646000000000001</v>
+      </c>
+      <c r="BG9">
+        <v>0.86353999999999997</v>
+      </c>
+      <c r="BH9">
+        <v>0.86897999999999997</v>
+      </c>
+      <c r="BI9">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="BJ9">
+        <v>0.85707999999999995</v>
+      </c>
+      <c r="BK9">
+        <v>0.88393999999999995</v>
+      </c>
+      <c r="BL9">
+        <v>0.86702000000000001</v>
+      </c>
+      <c r="BM9">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="BN9">
+        <v>0.85973999999999995</v>
+      </c>
+      <c r="BO9">
+        <v>0.86151999999999995</v>
+      </c>
+      <c r="BP9">
+        <v>0.86365999999999998</v>
+      </c>
+      <c r="BQ9">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="BR9">
+        <v>0.86362000000000005</v>
+      </c>
+      <c r="BS9">
+        <v>0.86341999999999997</v>
+      </c>
+      <c r="BT9">
+        <v>0.85885999999999996</v>
+      </c>
+      <c r="BU9">
+        <v>0.86663999999999997</v>
+      </c>
+      <c r="BV9">
+        <v>0.87161999999999995</v>
+      </c>
+      <c r="BW9">
+        <v>0.86421999999999999</v>
+      </c>
+      <c r="BX9">
+        <v>0.86765999999999999</v>
+      </c>
+      <c r="BY9">
+        <v>0.85763999999999996</v>
+      </c>
+      <c r="BZ9">
+        <v>0.86978</v>
+      </c>
+      <c r="CA9">
+        <v>0.86228000000000005</v>
+      </c>
+      <c r="CB9">
+        <v>0.86775999999999998</v>
+      </c>
+      <c r="CC9">
+        <v>0.85972000000000004</v>
+      </c>
+      <c r="CD9">
+        <v>0.84445999999999999</v>
+      </c>
+      <c r="CE9">
+        <v>0.86948999999999999</v>
+      </c>
+      <c r="CF9">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="CG9">
+        <v>0.86155999999999999</v>
+      </c>
+      <c r="CH9">
+        <v>0.85431999999999997</v>
+      </c>
+      <c r="CI9">
+        <v>0.86497999999999997</v>
+      </c>
+      <c r="CJ9">
+        <v>0.85463999999999996</v>
+      </c>
+      <c r="CK9">
+        <v>0.86758000000000002</v>
+      </c>
+      <c r="CL9">
+        <v>0.85472000000000004</v>
+      </c>
+      <c r="CM9">
+        <v>0.86295999999999995</v>
+      </c>
+      <c r="CN9">
+        <v>0.86426000000000003</v>
+      </c>
+      <c r="CO9">
+        <v>0.85787999999999998</v>
+      </c>
+      <c r="CP9">
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="CQ9">
+        <v>0.86040000000000005</v>
+      </c>
+      <c r="CR9">
+        <v>0.85672000000000004</v>
+      </c>
+      <c r="CS9">
+        <v>0.85316000000000003</v>
+      </c>
+      <c r="CT9">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="CU9">
+        <v>0.84214</v>
+      </c>
+      <c r="CV9">
+        <v>0.85011999999999999</v>
+      </c>
+      <c r="CW9">
+        <v>0.86370720000000023</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.85207999999999995</v>
-      </c>
-      <c r="B4">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.87243999999999999</v>
+      </c>
+      <c r="B10">
+        <v>0.88556000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.85372000000000003</v>
+      </c>
+      <c r="D10">
+        <v>0.85772000000000004</v>
+      </c>
+      <c r="E10">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.88275999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.86165999999999998</v>
+      </c>
+      <c r="I10">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="J10">
+        <v>0.86982000000000004</v>
+      </c>
+      <c r="K10">
+        <v>0.85192000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.84970000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="N10">
+        <v>0.85241999999999996</v>
+      </c>
+      <c r="O10">
+        <v>0.86987999999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.86212</v>
+      </c>
+      <c r="Q10">
+        <v>0.86477999999999999</v>
+      </c>
+      <c r="R10">
+        <v>0.87078</v>
+      </c>
+      <c r="S10">
+        <v>0.86253999999999997</v>
+      </c>
+      <c r="T10">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="U10">
+        <v>0.87041999999999997</v>
+      </c>
+      <c r="V10">
+        <v>0.84311999999999998</v>
+      </c>
+      <c r="W10">
+        <v>0.84379000000000004</v>
+      </c>
+      <c r="X10">
+        <v>0.86687999999999998</v>
+      </c>
+      <c r="Y10">
+        <v>0.86107999999999996</v>
+      </c>
+      <c r="Z10">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>0.84753999999999996</v>
+      </c>
+      <c r="AB10">
+        <v>0.86126000000000003</v>
+      </c>
+      <c r="AC10">
+        <v>0.87785999999999997</v>
+      </c>
+      <c r="AD10">
+        <v>0.85162000000000004</v>
+      </c>
+      <c r="AE10">
+        <v>0.87119999999999997</v>
+      </c>
+      <c r="AF10">
+        <v>0.85916000000000003</v>
+      </c>
+      <c r="AG10">
+        <v>0.87692000000000003</v>
+      </c>
+      <c r="AH10">
+        <v>0.85724</v>
+      </c>
+      <c r="AI10">
+        <v>0.87424000000000002</v>
+      </c>
+      <c r="AJ10">
+        <v>0.87229999999999996</v>
+      </c>
+      <c r="AK10">
+        <v>0.8468</v>
+      </c>
+      <c r="AL10">
         <v>0.87353999999999998</v>
       </c>
-      <c r="C4">
-        <v>0.86280999999999997</v>
+      <c r="AM10">
+        <v>0.82667999999999997</v>
+      </c>
+      <c r="AN10">
+        <v>0.85052000000000005</v>
+      </c>
+      <c r="AO10">
+        <v>0.86763999999999997</v>
+      </c>
+      <c r="AP10">
+        <v>0.85862000000000005</v>
+      </c>
+      <c r="AQ10">
+        <v>0.85962000000000005</v>
+      </c>
+      <c r="AR10">
+        <v>0.85094000000000003</v>
+      </c>
+      <c r="AS10">
+        <v>0.85975999999999997</v>
+      </c>
+      <c r="AT10">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="AU10">
+        <v>0.87436000000000003</v>
+      </c>
+      <c r="AV10">
+        <v>0.84501999999999999</v>
+      </c>
+      <c r="AW10">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="AX10">
+        <v>0.86965999999999999</v>
+      </c>
+      <c r="AY10">
+        <v>0.83482000000000001</v>
+      </c>
+      <c r="AZ10">
+        <v>0.87483999999999995</v>
+      </c>
+      <c r="BA10">
+        <v>0.86946000000000001</v>
+      </c>
+      <c r="BB10">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="BC10">
+        <v>0.88192000000000004</v>
+      </c>
+      <c r="BD10">
+        <v>0.86895999999999995</v>
+      </c>
+      <c r="BE10">
+        <v>0.86273999999999995</v>
+      </c>
+      <c r="BF10">
+        <v>0.85634999999999994</v>
+      </c>
+      <c r="BG10">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="BH10">
+        <v>0.87687999999999999</v>
+      </c>
+      <c r="BI10">
+        <v>0.86334</v>
+      </c>
+      <c r="BJ10">
+        <v>0.86062000000000005</v>
+      </c>
+      <c r="BK10">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="BL10">
+        <v>0.84823999999999999</v>
+      </c>
+      <c r="BM10">
+        <v>0.85385999999999995</v>
+      </c>
+      <c r="BN10">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="BO10">
+        <v>0.86197999999999997</v>
+      </c>
+      <c r="BP10">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="BQ10">
+        <v>0.86458000000000002</v>
+      </c>
+      <c r="BR10">
+        <v>0.86251999999999995</v>
+      </c>
+      <c r="BS10">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="BT10">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="BU10">
+        <v>0.85658000000000001</v>
+      </c>
+      <c r="BV10">
+        <v>0.86558000000000002</v>
+      </c>
+      <c r="BW10">
+        <v>0.84472000000000003</v>
+      </c>
+      <c r="BX10">
+        <v>0.87522</v>
+      </c>
+      <c r="BY10">
+        <v>0.86965999999999999</v>
+      </c>
+      <c r="BZ10">
+        <v>0.86429999999999996</v>
+      </c>
+      <c r="CA10">
+        <v>0.85396000000000005</v>
+      </c>
+      <c r="CB10">
+        <v>0.87216000000000005</v>
+      </c>
+      <c r="CC10">
+        <v>0.86672000000000005</v>
+      </c>
+      <c r="CD10">
+        <v>0.87078</v>
+      </c>
+      <c r="CE10">
+        <v>0.85362000000000005</v>
+      </c>
+      <c r="CF10">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="CG10">
+        <v>0.86487999999999998</v>
+      </c>
+      <c r="CH10">
+        <v>0.88248000000000004</v>
+      </c>
+      <c r="CI10">
+        <v>0.84397999999999995</v>
+      </c>
+      <c r="CJ10">
+        <v>0.85358000000000001</v>
+      </c>
+      <c r="CK10">
+        <v>0.86973999999999996</v>
+      </c>
+      <c r="CL10">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="CM10">
+        <v>0.88061999999999996</v>
+      </c>
+      <c r="CN10">
+        <v>0.85455999999999999</v>
+      </c>
+      <c r="CO10">
+        <v>0.88973999999999998</v>
+      </c>
+      <c r="CP10">
+        <v>0.86653999999999998</v>
+      </c>
+      <c r="CQ10">
+        <v>0.87695999999999996</v>
+      </c>
+      <c r="CR10">
+        <v>0.85528000000000004</v>
+      </c>
+      <c r="CS10">
+        <v>0.86604000000000003</v>
+      </c>
+      <c r="CT10">
+        <v>0.86978</v>
+      </c>
+      <c r="CU10">
+        <v>0.84752000000000005</v>
+      </c>
+      <c r="CV10">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="CW10">
+        <v>0.86276019999999987</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.86339999999999995</v>
-      </c>
-      <c r="B5">
-        <v>0.88282000000000005</v>
-      </c>
-      <c r="C5">
-        <v>0.87311000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.87873999999999997</v>
-      </c>
-      <c r="B6">
-        <v>0.87794000000000005</v>
-      </c>
-      <c r="C6">
-        <v>0.87834000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.86419999999999997</v>
-      </c>
-      <c r="B7">
-        <v>0.86572000000000005</v>
-      </c>
-      <c r="C7">
-        <v>0.86495999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.84921999999999997</v>
-      </c>
-      <c r="B8">
-        <v>0.86970000000000003</v>
-      </c>
-      <c r="C8">
-        <v>0.85946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.86514000000000002</v>
-      </c>
-      <c r="B9">
-        <v>0.87568000000000001</v>
-      </c>
-      <c r="C9">
-        <v>0.87041000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.87548000000000004</v>
-      </c>
-      <c r="B10">
-        <v>0.86897999999999997</v>
-      </c>
-      <c r="C10">
-        <v>0.87223000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.87744</v>
+        <v>0.86658000000000002</v>
       </c>
       <c r="B11">
-        <v>0.86177999999999999</v>
+        <v>0.85421999999999998</v>
       </c>
       <c r="C11">
-        <v>0.86960999999999999</v>
+        <v>0.85877999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.87314000000000003</v>
+      </c>
+      <c r="E11">
+        <v>0.84623999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.84706000000000004</v>
+      </c>
+      <c r="G11">
+        <v>0.86924000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.86634</v>
+      </c>
+      <c r="I11">
+        <v>0.86814000000000002</v>
+      </c>
+      <c r="J11">
+        <v>0.83989999999999998</v>
+      </c>
+      <c r="K11">
+        <v>0.85006000000000004</v>
+      </c>
+      <c r="L11">
+        <v>0.84304000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.86226000000000003</v>
+      </c>
+      <c r="N11">
+        <v>0.84474000000000005</v>
+      </c>
+      <c r="O11">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="P11">
+        <v>0.86402000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.86468</v>
+      </c>
+      <c r="R11">
+        <v>0.86214000000000002</v>
+      </c>
+      <c r="S11">
+        <v>0.85319999999999996</v>
+      </c>
+      <c r="T11">
+        <v>0.85828000000000004</v>
+      </c>
+      <c r="U11">
+        <v>0.87253999999999998</v>
+      </c>
+      <c r="V11">
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="W11">
+        <v>0.85196000000000005</v>
+      </c>
+      <c r="X11">
+        <v>0.85853999999999997</v>
+      </c>
+      <c r="Y11">
+        <v>0.85158</v>
+      </c>
+      <c r="Z11">
+        <v>0.85921999999999998</v>
+      </c>
+      <c r="AA11">
+        <v>0.85067999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>0.8548</v>
+      </c>
+      <c r="AC11">
+        <v>0.87028000000000005</v>
+      </c>
+      <c r="AD11">
+        <v>0.84938000000000002</v>
+      </c>
+      <c r="AE11">
+        <v>0.85951999999999995</v>
+      </c>
+      <c r="AF11">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="AG11">
+        <v>0.85031999999999996</v>
+      </c>
+      <c r="AH11">
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="AI11">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="AJ11">
+        <v>0.84665999999999997</v>
+      </c>
+      <c r="AK11">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="AL11">
+        <v>0.86299000000000003</v>
+      </c>
+      <c r="AM11">
+        <v>0.87351999999999996</v>
+      </c>
+      <c r="AN11">
+        <v>0.85562000000000005</v>
+      </c>
+      <c r="AO11">
+        <v>0.84609999999999996</v>
+      </c>
+      <c r="AP11">
+        <v>0.86577999999999999</v>
+      </c>
+      <c r="AQ11">
+        <v>0.86165999999999998</v>
+      </c>
+      <c r="AR11">
+        <v>0.87546000000000002</v>
+      </c>
+      <c r="AS11">
+        <v>0.85924</v>
+      </c>
+      <c r="AT11">
+        <v>0.86951999999999996</v>
+      </c>
+      <c r="AU11">
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="AV11">
+        <v>0.87558000000000002</v>
+      </c>
+      <c r="AW11">
+        <v>0.87327999999999995</v>
+      </c>
+      <c r="AX11">
+        <v>0.85451999999999995</v>
+      </c>
+      <c r="AY11">
+        <v>0.86117999999999995</v>
+      </c>
+      <c r="AZ11">
+        <v>0.89195999999999998</v>
+      </c>
+      <c r="BA11">
+        <v>0.86426000000000003</v>
+      </c>
+      <c r="BB11">
+        <v>0.86416000000000004</v>
+      </c>
+      <c r="BC11">
+        <v>0.85573999999999995</v>
+      </c>
+      <c r="BD11">
+        <v>0.86728000000000005</v>
+      </c>
+      <c r="BE11">
+        <v>0.86292000000000002</v>
+      </c>
+      <c r="BF11">
+        <v>0.85092000000000001</v>
+      </c>
+      <c r="BG11">
+        <v>0.86158000000000001</v>
+      </c>
+      <c r="BH11">
+        <v>0.85363999999999995</v>
+      </c>
+      <c r="BI11">
+        <v>0.84482000000000002</v>
+      </c>
+      <c r="BJ11">
+        <v>0.85238000000000003</v>
+      </c>
+      <c r="BK11">
+        <v>0.85006000000000004</v>
+      </c>
+      <c r="BL11">
+        <v>0.87056</v>
+      </c>
+      <c r="BM11">
+        <v>0.87087999999999999</v>
+      </c>
+      <c r="BN11">
+        <v>0.8508</v>
+      </c>
+      <c r="BO11">
+        <v>0.85018000000000005</v>
+      </c>
+      <c r="BP11">
+        <v>0.83672000000000002</v>
+      </c>
+      <c r="BQ11">
+        <v>0.84524999999999995</v>
+      </c>
+      <c r="BR11">
+        <v>0.85304000000000002</v>
+      </c>
+      <c r="BS11">
+        <v>0.86926000000000003</v>
+      </c>
+      <c r="BT11">
+        <v>0.84633999999999998</v>
+      </c>
+      <c r="BU11">
+        <v>0.83867999999999998</v>
+      </c>
+      <c r="BV11">
+        <v>0.87951999999999997</v>
+      </c>
+      <c r="BW11">
+        <v>0.83853999999999995</v>
+      </c>
+      <c r="BX11">
+        <v>0.87961999999999996</v>
+      </c>
+      <c r="BY11">
+        <v>0.86831999999999998</v>
+      </c>
+      <c r="BZ11">
+        <v>0.85797999999999996</v>
+      </c>
+      <c r="CA11">
+        <v>0.87078</v>
+      </c>
+      <c r="CB11">
+        <v>0.85167999999999999</v>
+      </c>
+      <c r="CC11">
+        <v>0.85673999999999995</v>
+      </c>
+      <c r="CD11">
+        <v>0.84609999999999996</v>
+      </c>
+      <c r="CE11">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="CF11">
+        <v>0.86682000000000003</v>
+      </c>
+      <c r="CG11">
+        <v>0.85016000000000003</v>
+      </c>
+      <c r="CH11">
+        <v>0.85221999999999998</v>
+      </c>
+      <c r="CI11">
+        <v>0.87468000000000001</v>
+      </c>
+      <c r="CJ11">
+        <v>0.86494000000000004</v>
+      </c>
+      <c r="CK11">
+        <v>0.87143999999999999</v>
+      </c>
+      <c r="CL11">
+        <v>0.87283999999999995</v>
+      </c>
+      <c r="CM11">
+        <v>0.86961999999999995</v>
+      </c>
+      <c r="CN11">
+        <v>0.86121999999999999</v>
+      </c>
+      <c r="CO11">
+        <v>0.86987999999999999</v>
+      </c>
+      <c r="CP11">
+        <v>0.86504000000000003</v>
+      </c>
+      <c r="CQ11">
+        <v>0.85675999999999997</v>
+      </c>
+      <c r="CR11">
+        <v>0.85304000000000002</v>
+      </c>
+      <c r="CS11">
+        <v>0.85565999999999998</v>
+      </c>
+      <c r="CT11">
+        <v>0.85862000000000005</v>
+      </c>
+      <c r="CU11">
+        <v>0.86287999999999998</v>
+      </c>
+      <c r="CV11">
+        <v>0.86206000000000005</v>
+      </c>
+      <c r="CW11">
+        <v>0.8598887999999999</v>
       </c>
     </row>
   </sheetData>
